--- a/test_info/data/gui/objects.xlsx
+++ b/test_info/data/gui/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_piedrahita\Documents\jp\bvc\tests\A2censoTest\test_info\data\gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38EF75D-4A04-4946-B80A-3466313D997D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC78427-476B-4ED7-A4B4-AA88DBA59495}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[1]/div/div[2]/ul/li[4]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/div[1]/div[1]/div/nav/div[2]/div/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/div[1]/div[1]/div/nav/div[2]/div/div[3]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/div[1]/div[1]/div/nav/div[2]/div/div[4]/a</t>
   </si>
 </sst>
 </file>
@@ -485,11 +494,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BF81B4-AA66-4E6C-9AB7-571DA7C7B70B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -550,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -567,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -584,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -601,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -618,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -635,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -653,15 +666,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE1DE59-AD82-40F2-B057-46F8A562C494}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>

--- a/test_info/data/gui/objects.xlsx
+++ b/test_info/data/gui/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_piedrahita\Documents\jp\bvc\tests\A2censoTest\test_info\data\gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC78427-476B-4ED7-A4B4-AA88DBA59495}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B69E64-755C-4487-9369-F37B08A7686D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="3" r:id="rId1"/>
@@ -82,15 +82,6 @@
     <t>footer_header_siguenos</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[1]/div/div[1]/ul/li[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[1]/div/div[2]/ul/li[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[2]/span</t>
-  </si>
-  <si>
     <t>footer_link_conocenos</t>
   </si>
   <si>
@@ -112,27 +103,6 @@
     <t>footer_link_pqrs</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[1]/div/div[1]/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[1]/div/div[1]/ul/li[3]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[1]/div/div[1]/ul/li[4]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[1]/div/div[1]/ul/li[5]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[1]/div/div[2]/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[1]/div/div[2]/ul/li[3]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[1]/div/div[2]/ul/li[4]/a</t>
-  </si>
-  <si>
     <t>/html/body/div[1]/div/div/div[1]/div[1]/div/nav/div[2]/div/div[2]/a</t>
   </si>
   <si>
@@ -140,6 +110,36 @@
   </si>
   <si>
     <t>/html/body/div[1]/div/div/div[1]/div[1]/div/nav/div[2]/div/div[4]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[2]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[5]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[3]/div/div[2]/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[2]/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[2]/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[2]/ul/li[4]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[2]/ul/li[5]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[5]/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[5]/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[5]/ul/li[4]/a</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BF81B4-AA66-4E6C-9AB7-571DA7C7B70B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -580,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -614,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -648,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -666,15 +666,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE1DE59-AD82-40F2-B057-46F8A562C494}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -703,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -748,13 +748,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -782,13 +782,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -799,13 +799,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -816,13 +816,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
@@ -833,13 +833,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -850,13 +850,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -884,13 +884,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
@@ -901,13 +901,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
@@ -918,13 +918,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
@@ -935,13 +935,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
@@ -952,13 +952,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>

--- a/test_info/data/gui/objects.xlsx
+++ b/test_info/data/gui/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_piedrahita\Documents\jp\bvc\tests\A2censoTest\test_info\data\gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B69E64-755C-4487-9369-F37B08A7686D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB18D3E6-BBEF-4BF1-843D-62B522B08B55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>footer_link</t>
   </si>
   <si>
-    <t>footer_header_conocenos</t>
-  </si>
-  <si>
     <t>footer_header_contenido</t>
   </si>
   <si>
@@ -112,34 +109,37 @@
     <t>/html/body/div[1]/div/div/div[1]/div[1]/div/nav/div[2]/div/div[4]/a</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[2]/ul/li[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[5]/ul/li[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[3]/div/div[2]/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[2]/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[2]/ul/li[3]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[2]/ul/li[4]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[2]/ul/li[5]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[5]/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[5]/ul/li[3]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/div[5]/div[1]/div[2]/div[1]/div[5]/ul/li[4]/a</t>
+    <t>footer_header_producto</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[2]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[5]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[3]/div/div[2]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[2]/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[2]/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[2]/ul/li[4]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[2]/ul/li[5]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[5]/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[5]/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[5]/ul/li[4]/a</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -580,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -614,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -648,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -667,7 +667,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
